--- a/natmiOut/OldD4/LR-pairs_lrc2p/Lama1-Itgb1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Lama1-Itgb1.xlsx
@@ -534,16 +534,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.494916642723955</v>
+        <v>0.5587383333333333</v>
       </c>
       <c r="H2">
-        <v>0.494916642723955</v>
+        <v>1.676215</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -552,34 +552,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N2">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O2">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P2">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q2">
-        <v>61.24253344007766</v>
+        <v>77.22830137400445</v>
       </c>
       <c r="R2">
-        <v>61.24253344007766</v>
+        <v>695.05471236604</v>
       </c>
       <c r="S2">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="T2">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.494916642723955</v>
+        <v>0.5587383333333333</v>
       </c>
       <c r="H3">
-        <v>0.494916642723955</v>
+        <v>1.676215</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -614,34 +614,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N3">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O3">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P3">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q3">
-        <v>68.58961658244023</v>
+        <v>82.64540622031666</v>
       </c>
       <c r="R3">
-        <v>68.58961658244023</v>
+        <v>743.8086559828499</v>
       </c>
       <c r="S3">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="T3">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.494916642723955</v>
+        <v>0.5587383333333333</v>
       </c>
       <c r="H4">
-        <v>0.494916642723955</v>
+        <v>1.676215</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -676,34 +676,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N4">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O4">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P4">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q4">
-        <v>35.28750306743026</v>
+        <v>41.49895842113111</v>
       </c>
       <c r="R4">
-        <v>35.28750306743026</v>
+        <v>373.49062579018</v>
       </c>
       <c r="S4">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="T4">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.494916642723955</v>
+        <v>0.5587383333333333</v>
       </c>
       <c r="H5">
-        <v>0.494916642723955</v>
+        <v>1.676215</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -738,34 +738,34 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N5">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O5">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P5">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q5">
-        <v>41.98220573549293</v>
+        <v>47.41283286345723</v>
       </c>
       <c r="R5">
-        <v>41.98220573549293</v>
+        <v>426.7154957711151</v>
       </c>
       <c r="S5">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="T5">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.494916642723955</v>
+        <v>0.5587383333333333</v>
       </c>
       <c r="H6">
-        <v>0.494916642723955</v>
+        <v>1.676215</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -800,34 +800,34 @@
         <v>1</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N6">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O6">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P6">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q6">
-        <v>82.84114360941724</v>
+        <v>94.5698687061775</v>
       </c>
       <c r="R6">
-        <v>82.84114360941724</v>
+        <v>567.419212237065</v>
       </c>
       <c r="S6">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="T6">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
     </row>
   </sheetData>
